--- a/christory/data/map-base.xlsx
+++ b/christory/data/map-base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\python\kivy\christory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39A657CC-140B-4C93-BA07-652D173D02E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8D0B68-E33C-490B-BA33-1C3DE2E3CC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{2A7F1743-7D02-4D19-84C9-706D5BB9CEF9}"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="21600" windowHeight="11295" xr2:uid="{2A7F1743-7D02-4D19-84C9-706D5BB9CEF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -50,9 +50,6 @@
     <t>manpower</t>
   </si>
   <si>
-    <t>econ</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
@@ -65,7 +62,19 @@
     <t>hills</t>
   </si>
   <si>
-    <t>mountains</t>
+    <t>mountain</t>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>desert</t>
+  </si>
+  <si>
+    <t>economy</t>
+  </si>
+  <si>
+    <t>ocean</t>
   </si>
 </sst>
 </file>
@@ -417,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F925EE-66F5-4AD3-9078-59306C5E6FAB}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,10 +448,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -450,10 +459,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -467,10 +476,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -484,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -501,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -511,6 +520,31 @@
       </c>
       <c r="E5">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
